--- a/Liferay/liferay-portal-2.xlsx
+++ b/Liferay/liferay-portal-2.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Liferay\性能★\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Liferay\性能★\Liferay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44982061-6398-4C3C-861B-B130E943B4B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5AE5FF-6625-41B8-8951-46CDB3085ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-101" yWindow="-101" windowWidth="38870" windowHeight="21349" activeTab="2" xr2:uid="{084F4E3B-9634-4927-86F6-F279E8341565}"/>
+    <workbookView xWindow="2890" yWindow="2890" windowWidth="29001" windowHeight="15568" activeTab="3" xr2:uid="{084F4E3B-9634-4927-86F6-F279E8341565}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
     <sheet name="jar file" sheetId="5" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>https://github.com/liferay/liferay-portal</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -228,12 +229,24 @@
   <si>
     <t>&lt;%@ include file="/init.jsp" %&gt;</t>
   </si>
+  <si>
+    <t xml:space="preserve">2025-10-31 08:39:54.322 ERROR [http-nio-8080-exec-1][PortletRequestDispatcherImpl:295] Unable to dispatch request: PWC6033: Error in Javac compilation for JSP__PWC6199: Generated servlet error:_找不到符号_ 符号: 类 FileEntryExpirationDateException_ 位置: 程序包 com.liferay.document.library.kernel.exception__PWC6199: Generated servlet error:_找不到符号_ 符号: 类 FileEntryReviewDateException_ 位置: 程序包 com.liferay.document.library.kernel.exception__PWC6199: Generated servlet error:_找不到符号_ 符号: 类 DLFileEntryUtil_ 位置: 程序包 com.liferay.document.library.web.internal.util__PWC6199: Generated servlet error:_未知的枚举常量 org.osgi.service.component.annotations.ReferencePolicy.DYNAMIC_ 原因: 找不到org.osgi.service.component.annotations.ReferencePolicy的类文件__PWC6199: Generated servlet error:_未知的枚举常量 org.osgi.service.component.annotations.ReferencePolicyOption.GREEDY_ 原因: 找不到org.osgi.service.component.annotations.ReferencePolicyOption的类文件__PWC6197: An error occurred at line: 76 in the jsp file: /document_library/init.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 类 DLRequestHelper_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 76 in the jsp file: /document_library/init.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 类 DLRequestHelper_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 10 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 类 DLAdminDisplayContext_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 10 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 类 DLAdminDisplayContext_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 10 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 类 DLAdminDisplayContext_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 10 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 类 DLAdminManagementToolbarDisplayContext_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 10 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 类 DLAdminManagementToolbarDisplayContext_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 10 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 类 DLAdminManagementToolbarDisplayContext_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 10 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 renderRequest_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 10 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 renderResponse_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 17 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 portletDisplay_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 100 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 HashMapBuilder_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 101 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 HashMapBuilder_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 101 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 类 Folder_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 105 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 HashMapBuilder_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 107 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 DLFileShortcutConstants_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 107 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 类 FileEntry_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 107 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 DLFileEntryConstants_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6199: Generated servlet error:_找不到符号_ 符号: 类 Folder_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 DLFolderConstants_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 HashMapBuilder_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 121 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 HashMapBuilder_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 121 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 PropsKeys_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 121 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 PrefsPropsUtil_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 121 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 PropsKeys_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 121 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 PrefsPropsUtil_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 scopeGroupId_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 dlTrashHelper_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 140 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 liferayPortletResponse_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 140 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 HashMapBuilder_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 148 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 user_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 148 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 PortalUtil_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 160 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 GetterUtil_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 160 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 portletConfig_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 166 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 LanguageUtil_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 176 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 StringPool_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 177 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 ListUtil_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 183 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 liferayPortletResponse_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 183 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 DLBreadcrumbUtil_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 187 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 BreadcrumbEntriesUtil_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 192 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 Constants_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 192 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 currentURL_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 207 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 类 AuthenticationRepositoryException_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6199: Generated servlet error:_找不到符号_ 符号: 类 DuplicateFileEntryException_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 210 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 类 DuplicateFolderNameException_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 210 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_程序包FileEntryLockException不存在__PWC6199: Generated servlet error:_程序包FileEntryLockException不存在__PWC6197: An error occurred at line: 210 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 类 DLObjectSizeLimitExceededException_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 210 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 类 DLObjectSizeLimitExceededException_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 210 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 类 DLObjectSizeLimitExceededException_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 210 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 errorException_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 216 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 renderRequest_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 291 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 类 FileEntryTemplateVerticalCard_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 313 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 HtmlUtil_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 313 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 user_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6199: Generated servlet error:_找不到符号_ 符号: 类 Folder_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 329 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 PortalUtil_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 344 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 scopeGroupId_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 344 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 currentURL_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 HashMapBuilder_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 338 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 HtmlUtil_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 338 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 themeDisplay_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 359 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 scopeGroupId_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 359 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 PortalUtil_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6199: Generated servlet error:_找不到符号_ 符号: 类 Map_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 HashMapBuilder_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 362 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 PortalUtil_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 15 in the jsp file: /document_library/friendly_url_changed_message.jspf_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 HashMapBuilder_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 15 in the jsp file: /document_library/friendly_url_changed_message.jspf_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 liferayPortletResponse_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6199: Generated servlet error:_找不到符号_ 符号: 类 Map_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 HashMapBuilder_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 PortalUtil_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 HashMapBuilder_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 liferayPortletResponse_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 357 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 currentURL_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 357 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 editImageURL_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 HashMapBuilder_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 GetterUtil_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 Validator_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__ [Sanitized] 2025-10-31 08:39:54.323 ERROR [http-nio-8080-exec-1][PortletServlet:109] Unable to process portlet com_liferay_document_library_web_portlet_DLPortlet_INSTANCE_kcxs: org.apache.jasper.JasperException: PWC6033: Error in Javac compilation for JSP__PWC6199: Generated servlet error:_找不到符号_ 符号: 类 FileEntryExpirationDateException_ 位置: 程序包 com.liferay.document.library.kernel.exception__PWC6199: Generated servlet error:_找不到符号_ 符号: 类 FileEntryReviewDateException_ 位置: 程序包 com.liferay.document.library.kernel.exception__PWC6199: Generated servlet error:_找不到符号_ 符号: 类 DLFileEntryUtil_ 位置: 程序包 com.liferay.document.library.web.internal.util__PWC6199: Generated servlet error:_未知的枚举常量 org.osgi.service.component.annotations.ReferencePolicy.DYNAMIC_ 原因: 找不到org.osgi.service.component.annotations.ReferencePolicy的类文件__PWC6199: Generated servlet error:_未知的枚举常量 org.osgi.service.component.annotations.ReferencePolicyOption.GREEDY_ 原因: 找不到org.osgi.service.component.annotations.ReferencePolicyOption的类文件__PWC6197: An error occurred at line: 76 in the jsp file: /document_library/init.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 类 DLRequestHelper_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 76 in the jsp file: /document_library/init.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 类 DLRequestHelper_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 10 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 类 DLAdminDisplayContext_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 10 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 类 DLAdminDisplayContext_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 10 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 类 DLAdminDisplayContext_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 10 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 类 DLAdminManagementToolbarDisplayContext_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 10 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 类 DLAdminManagementToolbarDisplayContext_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 10 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 类 DLAdminManagementToolbarDisplayContext_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 10 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 renderRequest_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 10 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 renderResponse_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 17 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 portletDisplay_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 100 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 HashMapBuilder_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 101 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 HashMapBuilder_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 101 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 类 Folder_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 105 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 HashMapBuilder_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 107 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 DLFileShortcutConstants_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 107 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 类 FileEntry_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 107 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 DLFileEntryConstants_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6199: Generated servlet error:_找不到符号_ 符号: 类 Folder_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 DLFolderConstants_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 HashMapBuilder_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 121 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 HashMapBuilder_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 121 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 PropsKeys_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 121 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 PrefsPropsUtil_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 121 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 PropsKeys_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 121 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 PrefsPropsUtil_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 scopeGroupId_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 dlTrashHelper_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 140 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 liferayPortletResponse_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 140 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 HashMapBuilder_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 148 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 user_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 148 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 PortalUtil_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 160 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 GetterUtil_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 160 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 portletConfig_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 166 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 LanguageUtil_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 176 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 StringPool_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 177 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 ListUtil_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 183 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 liferayPortletResponse_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 183 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 DLBreadcrumbUtil_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 187 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 BreadcrumbEntriesUtil_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 192 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 Constants_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 192 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 currentURL_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 207 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 类 AuthenticationRepositoryException_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6199: Generated servlet error:_找不到符号_ 符号: 类 DuplicateFileEntryException_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 210 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 类 DuplicateFolderNameException_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 210 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_程序包FileEntryLockException不存在__PWC6199: Generated servlet error:_程序包FileEntryLockException不存在__PWC6197: An error occurred at line: 210 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 类 DLObjectSizeLimitExceededException_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 210 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 类 DLObjectSizeLimitExceededException_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 210 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 类 DLObjectSizeLimitExceededException_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 210 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 errorException_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 216 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 renderRequest_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 291 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 类 FileEntryTemplateVerticalCard_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 313 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 HtmlUtil_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 313 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 user_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6199: Generated servlet error:_找不到符号_ 符号: 类 Folder_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 329 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 PortalUtil_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 344 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 scopeGroupId_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 344 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 currentURL_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 HashMapBuilder_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 338 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 HtmlUtil_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 338 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 themeDisplay_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 359 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 scopeGroupId_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 359 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 PortalUtil_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6199: Generated servlet error:_找不到符号_ 符号: 类 Map_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 HashMapBuilder_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 362 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 PortalUtil_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 15 in the jsp file: /document_library/friendly_url_changed_message.jspf_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 HashMapBuilder_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 15 in the jsp file: /document_library/friendly_url_changed_message.jspf_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 liferayPortletResponse_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6199: Generated servlet error:_找不到符号_ 符号: 类 Map_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 HashMapBuilder_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 PortalUtil_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 HashMapBuilder_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 liferayPortletResponse_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 357 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 currentURL_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 357 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 editImageURL_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 HashMapBuilder_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 GetterUtil_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 Validator_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__ [Sanitized] com.liferay.portal.kernel.log.LogSanitizerException: javax.portlet.PortletException: org.apache.jasper.JasperException: PWC6033: Error in Javac compilation for JSP__PWC6199: Generated servlet error:_找不到符号_ 符号: 类 FileEntryExpirationDateException_ 位置: 程序包 com.liferay.document.library.kernel.exception__PWC6199: Generated servlet error:_找不到符号_ 符号: 类 FileEntryReviewDateException_ 位置: 程序包 com.liferay.document.library.kernel.exception__PWC6199: Generated servlet error:_找不到符号_ 符号: 类 DLFileEntryUtil_ 位置: 程序包 com.liferay.document.library.web.internal.util__PWC6199: Generated servlet error:_未知的枚举常量 org.osgi.service.component.annotations.ReferencePolicy.DYNAMIC_ 原因: 找不到org.osgi.service.component.annotations.ReferencePolicy的类文件__PWC6199: Generated servlet error:_未知的枚举常量 org.osgi.service.component.annotations.ReferencePolicyOption.GREEDY_ 原因: 找不到org.osgi.service.component.annotations.ReferencePolicyOption的类文件__PWC6197: An error occurred at line: 76 in the jsp file: /document_library/init.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 类 DLRequestHelper_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 76 in the jsp file: /document_library/init.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 类 DLRequestHelper_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 10 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 类 DLAdminDisplayContext_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 10 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 类 DLAdminDisplayContext_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 10 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 类 DLAdminDisplayContext_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 10 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 类 DLAdminManagementToolbarDisplayContext_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 10 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 类 DLAdminManagementToolbarDisplayContext_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred </t>
+  </si>
+  <si>
+    <t>at line: 10 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 类 DLAdminManagementToolbarDisplayContext_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 10 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 renderRequest_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 10 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 renderResponse_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 17 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 portletDisplay_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 100 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 HashMapBuilder_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 101 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 HashMapBuilder_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 101 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 类 Folder_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 105 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 HashMapBuilder_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 107 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 DLFileShortcutConstants_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 107 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 类 FileEntry_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 107 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 DLFileEntryConstants_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6199: Generated servlet error:_找不到符号_ 符号: 类 Folder_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 DLFolderConstants_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 HashMapBuilder_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 121 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 HashMapBuilder_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 121 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 PropsKeys_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 121 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 PrefsPropsUtil_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 121 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 PropsKeys_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 121 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 PrefsPropsUtil_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 scopeGroupId_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 dlTrashHelper_ 位置: 类 org.apache.jsp.document_005flibrary.view_jsp__PWC6197: An error occurred at line: 140 in the jsp file: /document_library/view.jsp_PWC6199: Generated servlet error:_找不到符号_ 符号: 变量 liferayPortletResponse_ 位置: 类</t>
+  </si>
+  <si>
+    <t>文档与媒体暂时不可用。</t>
+  </si>
+  <si>
+    <t>ドキュメントとメディア は現在利用できません。</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,6 +310,20 @@
       <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFDA1414"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFDA1414"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -306,12 +333,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFF48989"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFF48989"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFF48989"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF48989"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -323,7 +365,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -334,6 +376,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1134,7 +1182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F5C4F7C-ECA9-4C68-A9C3-7026DF8E1105}">
   <dimension ref="A2:A41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
@@ -1314,4 +1362,41 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{948BC2DB-C52D-4DEE-9BB1-84AC92782AE9}">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.1"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="14.6" thickBot="1"/>
+    <row r="8" spans="1:1" ht="14.6" thickBot="1">
+      <c r="A8" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>